--- a/sources/biomarker_reference.xlsx
+++ b/sources/biomarker_reference.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\conig\repos\screentime_biomarkers\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\conig\repos\screentime_biomarkers\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C6149-C9DB-4D53-A9F5-D48F11DE669F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB9537A-0220-4C70-AAC3-9F3802AEA98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="23">
-  <si>
-    <t>Age (years)</t>
-  </si>
   <si>
     <t>SBP (mmHg)</t>
   </si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>BMI: body mass index; CRF: cardiorespiratory fitness; DBP: diastolic blood pressure; HDL-C: high-density lipoprotein cholesterol; HOMA: homeostatic model assessment; LDL-C: low-density lipoprotein; N: number of observations; SBP: systolic blood pressure; SD: standard deviation; Sum4Skin: sum of four skinfolds; TC: total cholesterol; TC:HDL-C: total cholesterol: high-density lipoprotein cholesterol ratio; TG: triglyceride; WC: waist circumference.</t>
+  </si>
+  <si>
+    <t>Age_years</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -226,13 +226,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -244,9 +241,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -254,9 +248,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -270,50 +261,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -741,17 +688,61 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color rgb="FF8E8E8E"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FF8E8E8E"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF8E8E8E"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -767,26 +758,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F501BE2B-99D8-4675-85E2-8D2EA0FB98EC}" name="Table1" displayName="Table1" ref="A1:Q29" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F501BE2B-99D8-4675-85E2-8D2EA0FB98EC}" name="Table1" displayName="Table1" ref="A1:Q29" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="A1:Q29" xr:uid="{F501BE2B-99D8-4675-85E2-8D2EA0FB98EC}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{A10B96A6-FFC3-4C94-BD00-384C679F6DC0}" name="Variable" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{45E4C155-84FD-4426-B117-61539A97DFE3}" name="Gender" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{076AD6DD-8B99-4F8C-927B-088BCD709E31}" name="Age (years)" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{8063D9A3-EA0D-487E-84FB-72B6CCC06196}" name="SBP (mmHg)" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{1A7E8CB7-35E7-4763-8B50-10D408884E14}" name="DBP (mmHg)" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{2FA75237-2CCB-4286-BEBE-91DBC5379E08}" name="WC (cm)" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{9A3E19C9-7563-4B13-BFB8-5289693230AD}" name="BMI (kg/m2)" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{569D5285-052B-4024-80EB-8D6050E60B8D}" name="Sum4Skin (mm)" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DB7A93C4-E015-448C-B8CF-2A1745EE0EA4}" name="TC (mmol/L)" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{547106C2-5844-406C-9BDE-400ACE536C86}" name="HDL-C (mmol/L)" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{008DAD8B-B1B5-40E8-A640-C096FEC89641}" name="LDL-C (mmol/L)" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{0B1C1B66-8974-4CED-80A6-F6EEA34CEFCE}" name="TC:HDL-C ratio" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{98BBAA92-3964-4494-83A6-9108F0D8B8EB}" name="TG (mmol/L)" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{682544FB-5352-40F6-9444-0CC0169AE490}" name="Glucose (mmol/L)" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{456C964A-7F5D-42E7-B96E-1852BB33F367}" name="Insulin (pmol/L)" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{8A10CA06-5536-40E3-9C20-4992C2FE0A8E}" name="HOMA score" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{5A6A4C9B-FDEE-4E73-9794-9D02FB0B9E6B}" name="CRF (mL/kg/min)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A10B96A6-FFC3-4C94-BD00-384C679F6DC0}" name="Variable" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{45E4C155-84FD-4426-B117-61539A97DFE3}" name="Gender" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{076AD6DD-8B99-4F8C-927B-088BCD709E31}" name="Age_years" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{8063D9A3-EA0D-487E-84FB-72B6CCC06196}" name="SBP (mmHg)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{1A7E8CB7-35E7-4763-8B50-10D408884E14}" name="DBP (mmHg)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{2FA75237-2CCB-4286-BEBE-91DBC5379E08}" name="WC (cm)" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{9A3E19C9-7563-4B13-BFB8-5289693230AD}" name="BMI (kg/m2)" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{569D5285-052B-4024-80EB-8D6050E60B8D}" name="Sum4Skin (mm)" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DB7A93C4-E015-448C-B8CF-2A1745EE0EA4}" name="TC (mmol/L)" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{547106C2-5844-406C-9BDE-400ACE536C86}" name="HDL-C (mmol/L)" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{008DAD8B-B1B5-40E8-A640-C096FEC89641}" name="LDL-C (mmol/L)" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{0B1C1B66-8974-4CED-80A6-F6EEA34CEFCE}" name="TC:HDL-C ratio" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{98BBAA92-3964-4494-83A6-9108F0D8B8EB}" name="TG (mmol/L)" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{682544FB-5352-40F6-9444-0CC0169AE490}" name="Glucose (mmol/L)" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{456C964A-7F5D-42E7-B96E-1852BB33F367}" name="Insulin (pmol/L)" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{8A10CA06-5536-40E3-9C20-4992C2FE0A8E}" name="HOMA score" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{5A6A4C9B-FDEE-4E73-9794-9D02FB0B9E6B}" name="CRF (mL/kg/min)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1058,7 +1049,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,1538 +1075,1538 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5">
         <v>6</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>94.6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>56.8</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>48.1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>14.4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>30.7</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>4.29</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>1.48</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>2.58</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>3</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>0.69</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>4.38</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>25.5</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>0.82</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>41.1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5">
         <v>7</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>96.5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>57.9</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>52.4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>15.3</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>32.700000000000003</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>4.37</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>1.51</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>2.57</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>3</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>0.72</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>4.6100000000000003</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>28.5</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>0.99</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>42.2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>98.4</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>59</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>56.1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>16.2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>34.799999999999997</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>1.53</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>2.54</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>2.99</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>0.75</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>4.78</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>33.5</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>1.21</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>42.8</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5">
         <v>9</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>100.2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>60</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>59.4</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>4.3899999999999997</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>1.53</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>2.5</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>2.98</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>0.77</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>4.91</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>39.799999999999997</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>1.48</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5">
         <v>10</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>101.9</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>61</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>62.2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>38.799999999999997</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>4.3600000000000003</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>1.52</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>2.46</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>2.98</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>0.79</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>4.99</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>46.7</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>1.76</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>42.9</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>103.4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>61.8</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>64.599999999999994</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>18.600000000000001</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>40.799999999999997</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>1.51</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>2.42</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>2.97</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>0.81</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>5.04</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>53.7</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>42.5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
         <v>12</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>104.8</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>62.6</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>66.7</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>19.399999999999999</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>42.9</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>4.26</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>1.49</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>2.38</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>2.96</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>0.82</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>5.05</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>59.9</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>105.9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>63.4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>68.5</v>
+      </c>
+      <c r="G9" s="5">
         <v>20</v>
       </c>
-      <c r="C9" s="6">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6">
-        <v>105.9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>63.4</v>
-      </c>
-      <c r="F9" s="6">
-        <v>68.5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>20</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>44.9</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>4.21</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>1.48</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>2.34</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>2.96</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>0.82</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>5.05</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>64.900000000000006</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>2.46</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>41.3</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5">
         <v>106.8</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>64</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>70.2</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>20.7</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>46.9</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>4.17</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>1.47</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>2.31</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>2.95</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>0.83</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>5.03</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>67.8</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>2.57</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>40.6</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>107.5</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>64.599999999999994</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>71.7</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>21.3</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>49</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>4.16</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>1.47</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>2.94</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>0.82</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>5</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>68.099999999999994</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>2.57</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
         <v>16</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>107.7</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>65.099999999999994</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>73.099999999999994</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>21.8</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>51</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>4.18</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>1.48</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>2.93</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>0.82</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>4.96</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>65.2</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>2.4500000000000002</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>39.5</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
         <v>17</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>107.7</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>65.5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>74.5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>22.3</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>53</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>4.25</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>1.51</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>2.31</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>2.93</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>0.81</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>4.93</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>58.3</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>39.200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <v>107.2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>65.8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="G14" s="5">
+        <v>22.8</v>
+      </c>
+      <c r="H14" s="5">
+        <v>55</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4.37</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2.35</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2.92</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N14" s="5">
+        <v>4.91</v>
+      </c>
+      <c r="O14" s="5">
+        <v>46.8</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="14">
+        <v>8.67</v>
+      </c>
+      <c r="E15" s="14">
+        <v>7.78</v>
+      </c>
+      <c r="F15" s="14">
+        <v>10.17</v>
+      </c>
+      <c r="G15" s="14">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H15" s="14">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="O15" s="14">
+        <v>30.71</v>
+      </c>
+      <c r="P15" s="14">
+        <v>1.24</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>95.8</v>
+      </c>
+      <c r="E16" s="7">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7">
+        <v>51.2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1.48</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4.51</v>
+      </c>
+      <c r="O16" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8">
+        <v>97.6</v>
+      </c>
+      <c r="E17" s="8">
+        <v>58.7</v>
+      </c>
+      <c r="F17" s="8">
+        <v>54.3</v>
+      </c>
+      <c r="G17" s="8">
+        <v>15.7</v>
+      </c>
+      <c r="H17" s="8">
+        <v>27.4</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4.34</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="K17" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="L17" s="8">
+        <v>2.82</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="N17" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="O17" s="8">
+        <v>25.2</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8">
+        <v>99.4</v>
+      </c>
+      <c r="E18" s="8">
+        <v>59.4</v>
+      </c>
+      <c r="F18" s="8">
+        <v>57.2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H18" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="I18" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="L18" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="N18" s="8">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="O18" s="8">
+        <v>29.8</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8">
+        <v>101.2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>60</v>
+      </c>
+      <c r="F19" s="8">
+        <v>59.9</v>
+      </c>
+      <c r="G19" s="8">
+        <v>17</v>
+      </c>
+      <c r="H19" s="8">
+        <v>31.7</v>
+      </c>
+      <c r="I19" s="8">
+        <v>4.26</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="K19" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L19" s="8">
+        <v>2.84</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="N19" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="O19" s="8">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1.33</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8">
+        <v>103</v>
+      </c>
+      <c r="E20" s="8">
+        <v>60.7</v>
+      </c>
+      <c r="F20" s="8">
+        <v>62.6</v>
+      </c>
+      <c r="G20" s="8">
+        <v>17.7</v>
+      </c>
+      <c r="H20" s="8">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I20" s="8">
+        <v>4.22</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1.59</v>
+      </c>
+      <c r="K20" s="8">
+        <v>2.38</v>
+      </c>
+      <c r="L20" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="N20" s="8">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O20" s="8">
+        <v>41</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1.57</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8">
+        <v>104.9</v>
+      </c>
+      <c r="E21" s="8">
+        <v>61.3</v>
+      </c>
+      <c r="F21" s="8">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G21" s="8">
+        <v>18.3</v>
+      </c>
+      <c r="H21" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="I21" s="8">
+        <v>4.18</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2.88</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="N21" s="8">
+        <v>5.12</v>
+      </c>
+      <c r="O21" s="8">
+        <v>46.8</v>
+      </c>
+      <c r="P21" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8">
+        <v>106.7</v>
+      </c>
+      <c r="E22" s="8">
+        <v>62</v>
+      </c>
+      <c r="F22" s="8">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G22" s="8">
+        <v>19</v>
+      </c>
+      <c r="H22" s="8">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I22" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="K22" s="8">
+        <v>2.27</v>
+      </c>
+      <c r="L22" s="8">
+        <v>2.91</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="N22" s="8">
+        <v>5.15</v>
+      </c>
+      <c r="O22" s="8">
+        <v>52.2</v>
+      </c>
+      <c r="P22" s="8">
+        <v>2.02</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8">
+        <v>13</v>
+      </c>
+      <c r="D23" s="8">
+        <v>108.5</v>
+      </c>
+      <c r="E23" s="8">
+        <v>62.6</v>
+      </c>
+      <c r="F23" s="8">
+        <v>69.7</v>
+      </c>
+      <c r="G23" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H23" s="8">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="I23" s="8">
+        <v>4.09</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1.44</v>
+      </c>
+      <c r="K23" s="8">
+        <v>2.23</v>
+      </c>
+      <c r="L23" s="8">
+        <v>2.94</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="N23" s="8">
+        <v>5.17</v>
+      </c>
+      <c r="O23" s="8">
+        <v>56.7</v>
+      </c>
+      <c r="P23" s="8">
+        <v>2.21</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8">
+        <v>14</v>
+      </c>
+      <c r="D24" s="8">
+        <v>110.3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>63.3</v>
+      </c>
+      <c r="F24" s="8">
+        <v>71.8</v>
+      </c>
+      <c r="G24" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="H24" s="8">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="I24" s="8">
+        <v>4.05</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="K24" s="8">
+        <v>2.19</v>
+      </c>
+      <c r="L24" s="8">
+        <v>2.99</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="N24" s="8">
+        <v>5.17</v>
+      </c>
+      <c r="O24" s="8">
+        <v>60.1</v>
+      </c>
+      <c r="P24" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="8">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8">
+        <v>112.1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>63.9</v>
+      </c>
+      <c r="F25" s="8">
+        <v>73.8</v>
+      </c>
+      <c r="G25" s="8">
+        <v>20.9</v>
+      </c>
+      <c r="H25" s="8">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I25" s="8">
+        <v>4.01</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="K25" s="8">
+        <v>2.17</v>
+      </c>
+      <c r="L25" s="8">
+        <v>3.03</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="N25" s="8">
+        <v>5.16</v>
+      </c>
+      <c r="O25" s="8">
+        <v>61.7</v>
+      </c>
+      <c r="P25" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="8">
+        <v>16</v>
+      </c>
+      <c r="D26" s="8">
+        <v>113.9</v>
+      </c>
+      <c r="E26" s="8">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="F26" s="8">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G26" s="8">
+        <v>21.6</v>
+      </c>
+      <c r="H26" s="8">
+        <v>34.6</v>
+      </c>
+      <c r="I26" s="8">
+        <v>3.96</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="K26" s="8">
+        <v>2.17</v>
+      </c>
+      <c r="L26" s="8">
+        <v>3.09</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="N26" s="8">
+        <v>5.15</v>
+      </c>
+      <c r="O26" s="8">
+        <v>61.4</v>
+      </c>
+      <c r="P26" s="8">
+        <v>2.42</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8">
+        <v>17</v>
+      </c>
+      <c r="D27" s="8">
+        <v>115.7</v>
+      </c>
+      <c r="E27" s="8">
+        <v>65.2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="G27" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="H27" s="8">
+        <v>33.4</v>
+      </c>
+      <c r="I27" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="K27" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L27" s="8">
+        <v>3.15</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="N27" s="8">
+        <v>5.14</v>
+      </c>
+      <c r="O27" s="8">
+        <v>58.6</v>
+      </c>
+      <c r="P27" s="8">
+        <v>2.31</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="8">
         <v>18</v>
       </c>
-      <c r="D14" s="6">
-        <v>107.2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>65.8</v>
-      </c>
-      <c r="F14" s="6">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="G14" s="6">
-        <v>22.8</v>
-      </c>
-      <c r="H14" s="6">
-        <v>55</v>
-      </c>
-      <c r="I14" s="6">
-        <v>4.37</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1.56</v>
-      </c>
-      <c r="K14" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="L14" s="6">
-        <v>2.92</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="N14" s="6">
-        <v>4.91</v>
-      </c>
-      <c r="O14" s="6">
-        <v>46.8</v>
-      </c>
-      <c r="P14" s="6">
-        <v>1.74</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>39.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="D28" s="8">
+        <v>117.5</v>
+      </c>
+      <c r="E28" s="8">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="F28" s="8">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G28" s="8">
+        <v>22.9</v>
+      </c>
+      <c r="H28" s="8">
+        <v>31.8</v>
+      </c>
+      <c r="I28" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1.34</v>
+      </c>
+      <c r="K28" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="L28" s="8">
+        <v>3.22</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="N28" s="8">
+        <v>5.13</v>
+      </c>
+      <c r="O28" s="8">
+        <v>52.9</v>
+      </c>
+      <c r="P28" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="17">
-        <v>8.67</v>
-      </c>
-      <c r="E15" s="17">
-        <v>7.78</v>
-      </c>
-      <c r="F15" s="17">
-        <v>10.17</v>
-      </c>
-      <c r="G15" s="17">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="H15" s="17">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="D29" s="11">
+        <v>9.32</v>
+      </c>
+      <c r="E29" s="11">
+        <v>8.06</v>
+      </c>
+      <c r="F29" s="11">
+        <v>10.6</v>
+      </c>
+      <c r="G29" s="11">
+        <v>3.99</v>
+      </c>
+      <c r="H29" s="11">
+        <v>16.71</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="J29" s="11">
         <v>0.32</v>
       </c>
-      <c r="K15" s="17">
-        <v>0.66</v>
-      </c>
-      <c r="L15" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="M15" s="17">
-        <v>0.37</v>
-      </c>
-      <c r="N15" s="17">
+      <c r="K29" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="11">
         <v>0.4</v>
       </c>
-      <c r="O15" s="17">
-        <v>30.71</v>
-      </c>
-      <c r="P15" s="17">
-        <v>1.24</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="8">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8">
-        <v>95.8</v>
-      </c>
-      <c r="E16" s="8">
-        <v>58</v>
-      </c>
-      <c r="F16" s="8">
-        <v>51.2</v>
-      </c>
-      <c r="G16" s="8">
-        <v>15.1</v>
-      </c>
-      <c r="H16" s="8">
-        <v>24.6</v>
-      </c>
-      <c r="I16" s="8">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1.48</v>
-      </c>
-      <c r="K16" s="8">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="L16" s="8">
-        <v>2.83</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="N16" s="8">
-        <v>4.51</v>
-      </c>
-      <c r="O16" s="8">
-        <v>21.9</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0.78</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>46.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9">
-        <v>7</v>
-      </c>
-      <c r="D17" s="9">
-        <v>97.6</v>
-      </c>
-      <c r="E17" s="9">
-        <v>58.7</v>
-      </c>
-      <c r="F17" s="9">
-        <v>54.3</v>
-      </c>
-      <c r="G17" s="9">
-        <v>15.7</v>
-      </c>
-      <c r="H17" s="9">
-        <v>27.4</v>
-      </c>
-      <c r="I17" s="9">
-        <v>4.34</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1.56</v>
-      </c>
-      <c r="K17" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="L17" s="9">
-        <v>2.82</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="N17" s="9">
-        <v>4.71</v>
-      </c>
-      <c r="O17" s="9">
-        <v>25.2</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9">
-        <v>8</v>
-      </c>
-      <c r="D18" s="9">
-        <v>99.4</v>
-      </c>
-      <c r="E18" s="9">
-        <v>59.4</v>
-      </c>
-      <c r="F18" s="9">
-        <v>57.2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H18" s="9">
-        <v>29.7</v>
-      </c>
-      <c r="I18" s="9">
-        <v>4.3</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="K18" s="9">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="L18" s="9">
-        <v>2.83</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0.69</v>
-      </c>
-      <c r="N18" s="9">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="O18" s="9">
-        <v>29.8</v>
-      </c>
-      <c r="P18" s="9">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9">
-        <v>9</v>
-      </c>
-      <c r="D19" s="9">
-        <v>101.2</v>
-      </c>
-      <c r="E19" s="9">
-        <v>60</v>
-      </c>
-      <c r="F19" s="9">
-        <v>59.9</v>
-      </c>
-      <c r="G19" s="9">
-        <v>17</v>
-      </c>
-      <c r="H19" s="9">
-        <v>31.7</v>
-      </c>
-      <c r="I19" s="9">
-        <v>4.26</v>
-      </c>
-      <c r="J19" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="K19" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="L19" s="9">
-        <v>2.84</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0.71</v>
-      </c>
-      <c r="N19" s="9">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="O19" s="9">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="P19" s="9">
-        <v>1.33</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="9">
-        <v>10</v>
-      </c>
-      <c r="D20" s="9">
-        <v>103</v>
-      </c>
-      <c r="E20" s="9">
-        <v>60.7</v>
-      </c>
-      <c r="F20" s="9">
-        <v>62.6</v>
-      </c>
-      <c r="G20" s="9">
-        <v>17.7</v>
-      </c>
-      <c r="H20" s="9">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="I20" s="9">
-        <v>4.22</v>
-      </c>
-      <c r="J20" s="9">
-        <v>1.59</v>
-      </c>
-      <c r="K20" s="9">
-        <v>2.38</v>
-      </c>
-      <c r="L20" s="9">
-        <v>2.85</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0.73</v>
-      </c>
-      <c r="N20" s="9">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="O20" s="9">
-        <v>41</v>
-      </c>
-      <c r="P20" s="9">
-        <v>1.57</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>47.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="9">
-        <v>11</v>
-      </c>
-      <c r="D21" s="9">
-        <v>104.9</v>
-      </c>
-      <c r="E21" s="9">
-        <v>61.3</v>
-      </c>
-      <c r="F21" s="9">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="G21" s="9">
-        <v>18.3</v>
-      </c>
-      <c r="H21" s="9">
-        <v>34.5</v>
-      </c>
-      <c r="I21" s="9">
-        <v>4.18</v>
-      </c>
-      <c r="J21" s="9">
-        <v>1.55</v>
-      </c>
-      <c r="K21" s="9">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="L21" s="9">
-        <v>2.88</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0.74</v>
-      </c>
-      <c r="N21" s="9">
-        <v>5.12</v>
-      </c>
-      <c r="O21" s="9">
-        <v>46.8</v>
-      </c>
-      <c r="P21" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="9">
-        <v>12</v>
-      </c>
-      <c r="D22" s="9">
-        <v>106.7</v>
-      </c>
-      <c r="E22" s="9">
-        <v>62</v>
-      </c>
-      <c r="F22" s="9">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="G22" s="9">
-        <v>19</v>
-      </c>
-      <c r="H22" s="9">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="I22" s="9">
-        <v>4.13</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="K22" s="9">
-        <v>2.27</v>
-      </c>
-      <c r="L22" s="9">
-        <v>2.91</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.76</v>
-      </c>
-      <c r="N22" s="9">
-        <v>5.15</v>
-      </c>
-      <c r="O22" s="9">
-        <v>52.2</v>
-      </c>
-      <c r="P22" s="9">
-        <v>2.02</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="9">
-        <v>13</v>
-      </c>
-      <c r="D23" s="9">
-        <v>108.5</v>
-      </c>
-      <c r="E23" s="9">
-        <v>62.6</v>
-      </c>
-      <c r="F23" s="9">
-        <v>69.7</v>
-      </c>
-      <c r="G23" s="9">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H23" s="9">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="I23" s="9">
-        <v>4.09</v>
-      </c>
-      <c r="J23" s="9">
-        <v>1.44</v>
-      </c>
-      <c r="K23" s="9">
-        <v>2.23</v>
-      </c>
-      <c r="L23" s="9">
-        <v>2.94</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="N23" s="9">
-        <v>5.17</v>
-      </c>
-      <c r="O23" s="9">
-        <v>56.7</v>
-      </c>
-      <c r="P23" s="9">
-        <v>2.21</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>49.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="9">
-        <v>14</v>
-      </c>
-      <c r="D24" s="9">
-        <v>110.3</v>
-      </c>
-      <c r="E24" s="9">
-        <v>63.3</v>
-      </c>
-      <c r="F24" s="9">
-        <v>71.8</v>
-      </c>
-      <c r="G24" s="9">
-        <v>20.3</v>
-      </c>
-      <c r="H24" s="9">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="I24" s="9">
-        <v>4.05</v>
-      </c>
-      <c r="J24" s="9">
-        <v>1.39</v>
-      </c>
-      <c r="K24" s="9">
-        <v>2.19</v>
-      </c>
-      <c r="L24" s="9">
-        <v>2.99</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="N24" s="9">
-        <v>5.17</v>
-      </c>
-      <c r="O24" s="9">
-        <v>60.1</v>
-      </c>
-      <c r="P24" s="9">
-        <v>2.35</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="9">
-        <v>15</v>
-      </c>
-      <c r="D25" s="9">
-        <v>112.1</v>
-      </c>
-      <c r="E25" s="9">
-        <v>63.9</v>
-      </c>
-      <c r="F25" s="9">
-        <v>73.8</v>
-      </c>
-      <c r="G25" s="9">
-        <v>20.9</v>
-      </c>
-      <c r="H25" s="9">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="I25" s="9">
-        <v>4.01</v>
-      </c>
-      <c r="J25" s="9">
-        <v>1.35</v>
-      </c>
-      <c r="K25" s="9">
-        <v>2.17</v>
-      </c>
-      <c r="L25" s="9">
-        <v>3.03</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0.81</v>
-      </c>
-      <c r="N25" s="9">
-        <v>5.16</v>
-      </c>
-      <c r="O25" s="9">
-        <v>61.7</v>
-      </c>
-      <c r="P25" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="9">
-        <v>16</v>
-      </c>
-      <c r="D26" s="9">
-        <v>113.9</v>
-      </c>
-      <c r="E26" s="9">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="F26" s="9">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="G26" s="9">
-        <v>21.6</v>
-      </c>
-      <c r="H26" s="9">
-        <v>34.6</v>
-      </c>
-      <c r="I26" s="9">
-        <v>3.96</v>
-      </c>
-      <c r="J26" s="9">
-        <v>1.32</v>
-      </c>
-      <c r="K26" s="9">
-        <v>2.17</v>
-      </c>
-      <c r="L26" s="9">
-        <v>3.09</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="N26" s="9">
-        <v>5.15</v>
-      </c>
-      <c r="O26" s="9">
-        <v>61.4</v>
-      </c>
-      <c r="P26" s="9">
-        <v>2.42</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="9">
-        <v>17</v>
-      </c>
-      <c r="D27" s="9">
-        <v>115.7</v>
-      </c>
-      <c r="E27" s="9">
-        <v>65.2</v>
-      </c>
-      <c r="F27" s="9">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="G27" s="9">
-        <v>22.2</v>
-      </c>
-      <c r="H27" s="9">
-        <v>33.4</v>
-      </c>
-      <c r="I27" s="9">
-        <v>3.92</v>
-      </c>
-      <c r="J27" s="9">
-        <v>1.32</v>
-      </c>
-      <c r="K27" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L27" s="9">
-        <v>3.15</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="N27" s="9">
-        <v>5.14</v>
-      </c>
-      <c r="O27" s="9">
-        <v>58.6</v>
-      </c>
-      <c r="P27" s="9">
-        <v>2.31</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="9">
-        <v>18</v>
-      </c>
-      <c r="D28" s="9">
-        <v>117.5</v>
-      </c>
-      <c r="E28" s="9">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="F28" s="9">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="G28" s="9">
-        <v>22.9</v>
-      </c>
-      <c r="H28" s="9">
-        <v>31.8</v>
-      </c>
-      <c r="I28" s="9">
-        <v>3.88</v>
-      </c>
-      <c r="J28" s="9">
-        <v>1.34</v>
-      </c>
-      <c r="K28" s="9">
-        <v>2.25</v>
-      </c>
-      <c r="L28" s="9">
-        <v>3.22</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0.87</v>
-      </c>
-      <c r="N28" s="9">
-        <v>5.13</v>
-      </c>
-      <c r="O28" s="9">
-        <v>52.9</v>
-      </c>
-      <c r="P28" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="13">
-        <v>9.32</v>
-      </c>
-      <c r="E29" s="13">
-        <v>8.06</v>
-      </c>
-      <c r="F29" s="13">
-        <v>10.6</v>
-      </c>
-      <c r="G29" s="13">
-        <v>3.99</v>
-      </c>
-      <c r="H29" s="13">
-        <v>16.71</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0.74</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0.32</v>
-      </c>
-      <c r="K29" s="13">
-        <v>0.64</v>
-      </c>
-      <c r="L29" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="M29" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="N29" s="13">
+      <c r="N29" s="11">
         <v>0.41</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="11">
         <v>32.090000000000003</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="11">
         <v>1.36</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="11">
         <v>7.74</v>
       </c>
     </row>
@@ -2637,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/sources/biomarker_reference.xlsx
+++ b/sources/biomarker_reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\conig\repos\screentime_biomarkers\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB9537A-0220-4C70-AAC3-9F3802AEA98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E154D47B-4ABA-4779-846C-2D39035740EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>Age_years</t>
+  </si>
+  <si>
+    <t>Sex</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
   <autoFilter ref="A1:Q29" xr:uid="{F501BE2B-99D8-4675-85E2-8D2EA0FB98EC}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{A10B96A6-FFC3-4C94-BD00-384C679F6DC0}" name="Variable" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{45E4C155-84FD-4426-B117-61539A97DFE3}" name="Gender" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{45E4C155-84FD-4426-B117-61539A97DFE3}" name="Sex" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{076AD6DD-8B99-4F8C-927B-088BCD709E31}" name="Age_years" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{8063D9A3-EA0D-487E-84FB-72B6CCC06196}" name="SBP (mmHg)" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{1A7E8CB7-35E7-4763-8B50-10D408884E14}" name="DBP (mmHg)" dataDxfId="12"/>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,13 +1075,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5">
         <v>6</v>
@@ -1184,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5">
         <v>7</v>
@@ -1237,7 +1237,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>8</v>
@@ -1290,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5">
         <v>9</v>
@@ -1343,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -1396,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
@@ -1449,7 +1449,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <v>12</v>
@@ -1502,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>13</v>
@@ -1555,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5">
         <v>14</v>
@@ -1608,7 +1608,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5">
         <v>15</v>
@@ -1661,7 +1661,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>16</v>
@@ -1714,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5">
         <v>17</v>
@@ -1767,7 +1767,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5">
         <v>18</v>
@@ -1820,7 +1820,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>16</v>
@@ -1873,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7">
         <v>6</v>
@@ -1926,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="8">
         <v>7</v>
@@ -1979,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="8">
         <v>9</v>
@@ -2085,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="8">
         <v>10</v>
@@ -2138,7 +2138,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="8">
         <v>11</v>
@@ -2191,7 +2191,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="8">
         <v>12</v>
@@ -2244,7 +2244,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="8">
         <v>13</v>
@@ -2297,7 +2297,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="8">
         <v>14</v>
@@ -2350,7 +2350,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="8">
         <v>15</v>
@@ -2403,7 +2403,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="8">
         <v>16</v>
@@ -2456,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="8">
         <v>17</v>
@@ -2509,7 +2509,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="8">
         <v>18</v>
@@ -2562,7 +2562,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>16</v>
@@ -2628,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
